--- a/xlsx/瓦列霍 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/瓦列霍 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>瓦列霍 (加利福尼亚州)</t>
   </si>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B8%95%E5%B8%83%E7%BE%85%E7%81%A3</t>
   </si>
   <si>
-    <t>聖帕布羅灣</t>
+    <t>圣帕布罗湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mariano_Guadalupe_Vallejo</t>
@@ -71,79 +71,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kaiser_Permanente</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -425,25 +425,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -455,31 +455,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -677,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -833,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -863,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -881,15 +881,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
   </si>
   <si>
-    <t>旧金山湾区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -905,37 +902,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
+    <t>库比蒂诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%BE%85%E4%BC%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾羅伊 (加利福尼亞州)</t>
+    <t>吉尔罗伊 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思加圖斯 (加利福尼亞州)</t>
+    <t>洛思加图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E7%9A%AE%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -947,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙堤聖利諾 (加利福尼亞州)</t>
+    <t>蒙堤圣利诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根山丘 (加利福尼亞州)</t>
+    <t>摩根山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%99%AF%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%A2%85%E8%BE%BE%E5%8E%BF</t>
@@ -995,43 +992,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>费利蒙 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%92%99%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1049,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%88%81%E5%8E%BF</t>
@@ -1115,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%B0%94%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E9%9F%A6%E4%BB%A3%E9%9B%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1247,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1367,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E6%96%AF%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -6091,7 +6085,7 @@
         <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6117,10 +6111,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>10</v>
@@ -6146,10 +6140,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6175,10 +6169,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6204,10 +6198,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6233,10 +6227,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6262,10 +6256,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6291,10 +6285,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6320,10 +6314,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6349,10 +6343,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6378,10 +6372,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6407,10 +6401,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6436,10 +6430,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6465,10 +6459,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6494,10 +6488,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6523,10 +6517,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6552,10 +6546,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6581,10 +6575,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6610,10 +6604,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6639,10 +6633,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6668,10 +6662,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6697,10 +6691,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6726,10 +6720,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6755,10 +6749,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6784,10 +6778,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6813,10 +6807,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6842,10 +6836,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6871,10 +6865,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6900,10 +6894,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6929,10 +6923,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6958,10 +6952,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6987,10 +6981,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7016,10 +7010,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7045,10 +7039,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7074,10 +7068,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7103,10 +7097,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7132,10 +7126,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7161,10 +7155,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7190,10 +7184,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7219,10 +7213,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7248,10 +7242,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7277,10 +7271,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7306,10 +7300,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7335,10 +7329,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7393,10 +7387,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7422,10 +7416,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7451,10 +7445,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7480,10 +7474,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7509,10 +7503,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7538,10 +7532,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7567,10 +7561,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7596,10 +7590,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7625,10 +7619,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7654,10 +7648,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7683,10 +7677,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7712,10 +7706,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7741,10 +7735,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7770,10 +7764,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7799,10 +7793,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7828,10 +7822,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7886,10 +7880,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7915,10 +7909,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7944,10 +7938,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7973,10 +7967,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8002,10 +7996,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8031,10 +8025,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8060,10 +8054,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8089,10 +8083,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8118,10 +8112,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8147,10 +8141,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8176,10 +8170,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8205,10 +8199,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8234,10 +8228,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8263,10 +8257,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8292,10 +8286,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8321,10 +8315,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8350,10 +8344,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8379,10 +8373,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8408,10 +8402,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8437,10 +8431,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8466,10 +8460,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8495,10 +8489,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8524,10 +8518,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8553,10 +8547,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8582,10 +8576,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8611,10 +8605,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8640,10 +8634,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8669,10 +8663,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8698,10 +8692,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8756,10 +8750,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8785,10 +8779,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8814,10 +8808,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8843,10 +8837,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8872,10 +8866,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8901,10 +8895,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8930,10 +8924,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
